--- a/Prediksjon/Prediksjonar_kodekveld.xlsx
+++ b/Prediksjon/Prediksjonar_kodekveld.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bouvetasa-my.sharepoint.com/personal/jens_nilsen_bouvet_no/Documents/Documents/GitHub/onesixtynine/Prediksjon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{BD1565B6-92F6-4EE0-88E8-024BA310E984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96C805F2-FFFD-4DD4-9E70-B55F1D738C3A}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{BD1565B6-92F6-4EE0-88E8-024BA310E984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94FF4A1C-6486-4CCB-958F-F3D8714A735F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AC476DC-AF0E-4F1B-865E-94B17F133842}"/>
   </bookViews>
@@ -90,10 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,32 +98,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,16 +119,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,6 +136,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB750F66-7416-427E-937D-C67EA1FA3B2F}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,121 +607,6 @@
         <f>L3+M3</f>
         <v>169</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E19" s="4"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
